--- a/data/Regresión_diccionario_de_datos.xlsx
+++ b/data/Regresión_diccionario_de_datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos ISIS Uniandes\ISIS3301-BI\2024-20\Laboratorio de Regresión\RE_ Preparación de laboratorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/s_tinjaca_uniandes_edu_co/Documents/Semestres/Sem 6/FML/Lab1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180B85DB-1BB5-4E88-98D9-2278DDC7B271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{180B85DB-1BB5-4E88-98D9-2278DDC7B271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B08D2FB-520C-48AF-AA2A-05DC464BF35F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0F77D750-55FF-454A-9CF4-ECFBCB229FF4}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{0F77D750-55FF-454A-9CF4-ECFBCB229FF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Diccionario</t>
   </si>
@@ -158,9 +158,6 @@
     <t>KTAS registrado por el experto.  [1 = Emergencia Resucitativa, 2 = Emergencia Crítica, 3 = Emergencia Urgente, 4 = Emergencia Menor, 5 = Consulta Médica no Urgente)</t>
   </si>
   <si>
-    <t>Clasificación incorrecta de la severidad de la condición de un paciente.</t>
-  </si>
-  <si>
     <t>Duración de la evaluación KTAS en minutos.</t>
   </si>
   <si>
@@ -183,13 +180,25 @@
   </si>
   <si>
     <t>Sexo del paciente. [1 = Femenino, 2 = Masculino]</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Condiciones Iniciales</t>
+  </si>
+  <si>
+    <t>Signos Vitales</t>
+  </si>
+  <si>
+    <t>Clasificación incorrecta de la severidad de la condición de un paciente. 0 está igual, 2 era mas grave, 1 era mas leve.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,13 +214,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -226,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -242,6 +283,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -261,7 +310,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -577,24 +626,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94EA2E49-5112-4BD7-9B9E-051F603744A4}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="94" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -602,159 +652,184 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -762,31 +837,34 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
   </sheetData>
